--- a/espn_scrapper/IPL/Kolkata Knight Riders/Pat Cummins .xlsx
+++ b/espn_scrapper/IPL/Kolkata Knight Riders/Pat Cummins .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,9 +822,114 @@
         <v>120.00</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v xml:space="preserve"> Oct 21 2020</v>
+      </c>
+      <c r="B13" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C13" t="str">
+        <v>RCB won by 8 wickets (with 39 balls remaining)</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="F13" t="str">
+        <v xml:space="preserve">Pat Cummins </v>
+      </c>
+      <c r="G13" t="str">
+        <v>4</v>
+      </c>
+      <c r="H13" t="str">
+        <v>17</v>
+      </c>
+      <c r="I13" t="str">
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>23.52</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v xml:space="preserve"> Oct 10 2020</v>
+      </c>
+      <c r="B14" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C14" t="str">
+        <v>KKR won by 2 runs</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F14" t="str">
+        <v xml:space="preserve">Pat Cummins </v>
+      </c>
+      <c r="G14" t="str">
+        <v>5</v>
+      </c>
+      <c r="H14" t="str">
+        <v>4</v>
+      </c>
+      <c r="I14" t="str">
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v>125.00</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v xml:space="preserve"> Oct 16 2020</v>
+      </c>
+      <c r="B15" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Mumbai won by 8 wickets (with 19 balls remaining)</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F15" t="str">
+        <v xml:space="preserve">Pat Cummins </v>
+      </c>
+      <c r="G15" t="str">
+        <v>53</v>
+      </c>
+      <c r="H15" t="str">
+        <v>36</v>
+      </c>
+      <c r="I15" t="str">
+        <v>5</v>
+      </c>
+      <c r="J15" t="str">
+        <v>2</v>
+      </c>
+      <c r="K15" t="str">
+        <v>147.22</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K15"/>
   </ignoredErrors>
 </worksheet>
 </file>